--- a/docs/F4+_유지보험_규칙_확인용_v8.1.xlsx
+++ b/docs/F4+_유지보험_규칙_확인용_v8.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.123.146\doowon_home\project\my\nanumpay\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAA4381-EF8A-4B38-A54C-752CD11A0CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA653E10-5268-4B9A-A1C6-56BDC1A26D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="2325" windowWidth="21600" windowHeight="11505" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.규칙요약" sheetId="1" r:id="rId1"/>
@@ -708,9 +708,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -726,6 +723,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1030,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1042,12 +1042,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1064,7 +1064,7 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>165</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1116,13 +1116,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1298,13 +1298,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1447,12 +1447,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1517,7 +1517,7 @@
       <c r="B7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>82</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -1616,12 +1616,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1722,7 +1722,7 @@
       <c r="B10" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>96</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1736,7 +1736,7 @@
       <c r="B11" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="11" t="s">
         <v>98</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1750,7 +1750,7 @@
       <c r="B12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="12" t="s">
         <v>82</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -1797,12 +1797,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1943,7 +1943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -1953,12 +1953,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -2009,7 +2009,7 @@
       <c r="B6" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="13" t="s">
         <v>130</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2023,7 +2023,7 @@
       <c r="B7" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -2051,7 +2051,7 @@
       <c r="B9" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>137</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -2065,7 +2065,7 @@
       <c r="B10" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="14" t="s">
         <v>139</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -2119,11 +2119,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">

--- a/docs/F4+_유지보험_규칙_확인용_v8.1.xlsx
+++ b/docs/F4+_유지보험_규칙_확인용_v8.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.123.146\doowon_home\project\my\nanumpay\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA653E10-5268-4B9A-A1C6-56BDC1A26D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60389ABD-4C3A-4624-BF7B-66B92CC61653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29160" yWindow="870" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.규칙요약" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="169">
   <si>
     <t>F4+ 유지보험 규칙 요약 (v8.1)</t>
   </si>
@@ -144,12 +144,6 @@
   </si>
   <si>
     <t>F7</t>
-  </si>
-  <si>
-    <t>60회</t>
-  </si>
-  <si>
-    <t>5차</t>
   </si>
   <si>
     <t>F6와 동일</t>
@@ -1030,7 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1065,7 +1059,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -1106,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1180,10 +1174,10 @@
         <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
@@ -1196,10 +1190,10 @@
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1211,11 +1205,11 @@
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>34</v>
+      <c r="B8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>31</v>
@@ -1228,10 +1222,10 @@
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -1243,34 +1237,34 @@
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>40</v>
+      <c r="B10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1299,7 +1293,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A1" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1308,120 +1302,120 @@
     </row>
     <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1448,7 +1442,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1456,16 +1450,16 @@
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1473,10 +1467,10 @@
         <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
@@ -1487,10 +1481,10 @@
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
@@ -1498,99 +1492,99 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>82</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="D10" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1617,7 +1611,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1625,16 +1619,16 @@
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1642,10 +1636,10 @@
         <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
@@ -1656,10 +1650,10 @@
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
@@ -1667,111 +1661,111 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1798,7 +1792,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1806,55 +1800,55 @@
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -1862,7 +1856,7 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -1870,64 +1864,64 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1954,7 +1948,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1962,44 +1956,44 @@
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2007,10 +2001,10 @@
         <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
@@ -2018,41 +2012,41 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>137</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
@@ -2060,38 +2054,38 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2120,109 +2114,109 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.5">
       <c r="A1" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
     </row>
     <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
     </row>
